--- a/Datos/Database by set/Set with text box/Xlsx sets/Rise of the Eldrazi Promos (PROE).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Rise of the Eldrazi Promos (PROE).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,322 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Deathless Angel</t>
+          <t>('Deathless Angel', ['{4}{W}{W}', 'Creature — Angel', 'Flying', '{W}{W}: Target creature gains indestructible until end of turn.', '5/7'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{W}{W}</t>
+          <t>('Emrakul, the Aeons Torn', ['{15}', 'Legendary Creature — Eldrazi', 'This spell can’t be countered.', 'When you cast this spell, take an extra turn after this one.', 'Flying, protection from colored spells, annihilator 6', 'When Emrakul, the Aeons Torn is put into a graveyard from anywhere, its owner shuffles their graveyard into their library.', '15/15'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Angel</t>
+          <t>('Guul Draz Assassin', ['{B}', 'Creature — Vampire Assassin', 'Level up {1}{B} ({1}{B}: Put a level counter on this. Level up only as a sorcery.)', 'LEVEL 2-3', '2/2', '{B}, {T}: Target creature gets -2/-2 until end of turn.', 'LEVEL 4+', '4/4', '{B}, {T}: Target creature gets -4/-4 until end of turn.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Lord of Shatterskull Pass', ['{3}{R}', 'Creature — Minotaur Shaman', 'Level up {1}{R} ({1}{R}: Put a level counter on this. Level up only as a sorcery.)', 'LEVEL 1-5', '6/6', 'LEVEL 6+', '6/6', 'Whenever Lord of Shatterskull Pass attacks, it deals 6 damage to each creature defending player controls.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{W}{W}: Target creature gains indestructible until end of turn.</t>
+          <t>('Pestilence Demon', ['{5}{B}{B}{B}', 'Creature — Demon', 'Flying', '{B}: Pestilence Demon deals 1 damage to each creature and each player.', '7/6'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Emrakul, the Aeons Torn</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{15}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Eldrazi</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>This spell can’t be countered.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>When you cast this spell, take an extra turn after this one.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Flying, protection from colored spells, annihilator 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>When Emrakul, the Aeons Torn is put into a graveyard from anywhere, its owner shuffles their graveyard into their library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>15/15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Guul Draz Assassin</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Creature — Vampire Assassin</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Level up {1}{B} ({1}{B}: Put a level counter on this. Level up only as a sorcery.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LEVEL 2-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{B}, {T}: Target creature gets -2/-2 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LEVEL 4+</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{B}, {T}: Target creature gets -4/-4 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Lord of Shatterskull Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{3}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Creature — Minotaur Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Level up {1}{R} ({1}{R}: Put a level counter on this. Level up only as a sorcery.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>LEVEL 1-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>LEVEL 6+</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Whenever Lord of Shatterskull Pass attacks, it deals 6 damage to each creature defending player controls.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Pestilence Demon</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>{5}{B}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Creature — Demon</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{B}: Pestilence Demon deals 1 damage to each creature and each player.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>7/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Staggershock</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>{2}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Staggershock deals 2 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Rebound (If you cast this spell from your hand, exile it as it resolves. At the beginning of your next upkeep, you may cast this card from exile without paying its mana cost.)</t>
+          <t>('Staggershock', ['{2}{R}', 'Instant', 'Staggershock deals 2 damage to any target.', 'Rebound (If you cast this spell from your hand, exile it as it resolves. At the beginning of your next upkeep, you may cast this card from exile without paying its mana cost.)'])</t>
         </is>
       </c>
     </row>
